--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H2">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I2">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J2">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N2">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O2">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P2">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q2">
-        <v>3.950562907679334</v>
+        <v>8.744300005750556</v>
       </c>
       <c r="R2">
-        <v>35.55506616911401</v>
+        <v>78.698700051755</v>
       </c>
       <c r="S2">
-        <v>0.0006675454617535522</v>
+        <v>0.0008156562638998149</v>
       </c>
       <c r="T2">
-        <v>0.0006703032796493382</v>
+        <v>0.0008197639068163327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H3">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I3">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J3">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P3">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q3">
-        <v>8.155598113766001</v>
+        <v>7.292731931888667</v>
       </c>
       <c r="R3">
-        <v>73.40038302389401</v>
+        <v>65.63458738699801</v>
       </c>
       <c r="S3">
-        <v>0.001378090321798827</v>
+        <v>0.0006802559927353063</v>
       </c>
       <c r="T3">
-        <v>0.001383783600188411</v>
+        <v>0.0006836817602229709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H4">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I4">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J4">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N4">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O4">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P4">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q4">
-        <v>424.643892363933</v>
+        <v>589.7844119242111</v>
       </c>
       <c r="R4">
-        <v>3821.795031275397</v>
+        <v>5308.059707317899</v>
       </c>
       <c r="S4">
-        <v>0.07175410437279295</v>
+        <v>0.05501427782899589</v>
       </c>
       <c r="T4">
-        <v>0.07205054074225845</v>
+        <v>0.05529132959532594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H5">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I5">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J5">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N5">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O5">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P5">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q5">
-        <v>3.5366875968575</v>
+        <v>7.899219927222167</v>
       </c>
       <c r="R5">
-        <v>21.220125581145</v>
+        <v>47.395319563333</v>
       </c>
       <c r="S5">
-        <v>0.000597610975978397</v>
+        <v>0.0007368283578243917</v>
       </c>
       <c r="T5">
-        <v>0.0004000532499069951</v>
+        <v>0.0004936926824013021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H6">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I6">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J6">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N6">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O6">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P6">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q6">
-        <v>539.8751209240177</v>
+        <v>660.5993610658772</v>
       </c>
       <c r="R6">
-        <v>4858.876088316159</v>
+        <v>5945.394249592896</v>
       </c>
       <c r="S6">
-        <v>0.09122527480474463</v>
+        <v>0.06161979877488766</v>
       </c>
       <c r="T6">
-        <v>0.09160215205104279</v>
+        <v>0.06193011592827376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J7">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N7">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O7">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P7">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q7">
-        <v>5.184273989776223</v>
+        <v>12.83274546852611</v>
       </c>
       <c r="R7">
-        <v>46.65846590798601</v>
+        <v>115.494709216735</v>
       </c>
       <c r="S7">
-        <v>0.0008760115090522705</v>
+        <v>0.00119702082700179</v>
       </c>
       <c r="T7">
-        <v>0.0008796305587724688</v>
+        <v>0.001203049020909662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J8">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P8">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q8">
         <v>10.70248877446733</v>
@@ -948,10 +948,10 @@
         <v>96.32239897020601</v>
       </c>
       <c r="S8">
-        <v>0.001808450587377386</v>
+        <v>0.0009983134158790155</v>
       </c>
       <c r="T8">
-        <v>0.001815921804963695</v>
+        <v>0.001003340919758645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J9">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N9">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O9">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P9">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q9">
-        <v>557.2548362210169</v>
+        <v>865.5413508857671</v>
       </c>
       <c r="R9">
-        <v>5015.293525989154</v>
+        <v>7789.872157971903</v>
       </c>
       <c r="S9">
-        <v>0.09416200821317319</v>
+        <v>0.0807365053863664</v>
       </c>
       <c r="T9">
-        <v>0.09455101793046092</v>
+        <v>0.08114309422670594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J10">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N10">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O10">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P10">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q10">
-        <v>4.641150627600833</v>
+        <v>11.59254356086683</v>
       </c>
       <c r="R10">
-        <v>27.846903765605</v>
+        <v>69.55526136520101</v>
       </c>
       <c r="S10">
-        <v>0.0007842373634266564</v>
+        <v>0.001081336500775844</v>
       </c>
       <c r="T10">
-        <v>0.0005249848455739682</v>
+        <v>0.0007245214058030271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J11">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N11">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O11">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P11">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q11">
-        <v>708.4713273880767</v>
+        <v>969.4662181826346</v>
       </c>
       <c r="R11">
-        <v>6376.241946492691</v>
+        <v>8725.195963643713</v>
       </c>
       <c r="S11">
-        <v>0.1197137801453822</v>
+        <v>0.0904304739064196</v>
       </c>
       <c r="T11">
-        <v>0.1202083514130677</v>
+        <v>0.09088588154811793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H12">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I12">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J12">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N12">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O12">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P12">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q12">
-        <v>7.515026680652669</v>
+        <v>26.87070986524389</v>
       </c>
       <c r="R12">
-        <v>67.63524012587402</v>
+        <v>241.836388787195</v>
       </c>
       <c r="S12">
-        <v>0.001269849910724102</v>
+        <v>0.002506462816075292</v>
       </c>
       <c r="T12">
-        <v>0.001275096017557871</v>
+        <v>0.002519085356583645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H13">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I13">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J13">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P13">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q13">
-        <v>15.514127696206</v>
+        <v>22.41012816782467</v>
       </c>
       <c r="R13">
-        <v>139.627149265854</v>
+        <v>201.691153510422</v>
       </c>
       <c r="S13">
-        <v>0.002621496171225641</v>
+        <v>0.002090385897426094</v>
       </c>
       <c r="T13">
-        <v>0.002632326308600479</v>
+        <v>0.002100913075606884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H14">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I14">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J14">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N14">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O14">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P14">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q14">
-        <v>807.7861954021531</v>
+        <v>1812.372151622979</v>
       </c>
       <c r="R14">
-        <v>7270.075758619379</v>
+        <v>16311.34936460681</v>
       </c>
       <c r="S14">
-        <v>0.1364954872025151</v>
+        <v>0.1690555787217621</v>
       </c>
       <c r="T14">
-        <v>0.1370593884180403</v>
+        <v>0.1699069421957752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H15">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I15">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J15">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N15">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O15">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P15">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q15">
-        <v>6.727725205907501</v>
+        <v>24.27382943020617</v>
       </c>
       <c r="R15">
-        <v>40.36635123544501</v>
+        <v>145.642976581237</v>
       </c>
       <c r="S15">
-        <v>0.001136815824498971</v>
+        <v>0.002264229384920778</v>
       </c>
       <c r="T15">
-        <v>0.000761008220091583</v>
+        <v>0.00151708802564817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H16">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I16">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J16">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N16">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O16">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P16">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q16">
-        <v>1026.986794737024</v>
+        <v>2029.982246342549</v>
       </c>
       <c r="R16">
-        <v>9242.881152633219</v>
+        <v>18269.84021708294</v>
       </c>
       <c r="S16">
-        <v>0.1735348582286578</v>
+        <v>0.1893539487146858</v>
       </c>
       <c r="T16">
-        <v>0.174251779494677</v>
+        <v>0.1903075347295026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H17">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I17">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J17">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N17">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O17">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P17">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q17">
-        <v>0.208595110169</v>
+        <v>0.6511729922708334</v>
       </c>
       <c r="R17">
-        <v>1.251570661014</v>
+        <v>3.907037953625</v>
       </c>
       <c r="S17">
-        <v>3.524731092539301E-05</v>
+        <v>6.074052007351066E-05</v>
       </c>
       <c r="T17">
-        <v>2.359528498133799E-05</v>
+        <v>4.069760612102888E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H18">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I18">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J18">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.088322</v>
       </c>
       <c r="O18">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P18">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q18">
-        <v>0.4306267047989999</v>
+        <v>0.543077212675</v>
       </c>
       <c r="R18">
-        <v>2.583760228794</v>
+        <v>3.25846327605</v>
       </c>
       <c r="S18">
-        <v>7.276504873259248E-05</v>
+        <v>5.065749459742997E-05</v>
       </c>
       <c r="T18">
-        <v>4.871044106486891E-05</v>
+        <v>3.39417370761606E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H19">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I19">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J19">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N19">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O19">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P19">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q19">
-        <v>22.4217767392245</v>
+        <v>43.9202314713375</v>
       </c>
       <c r="R19">
-        <v>134.530660435347</v>
+        <v>263.521388828025</v>
       </c>
       <c r="S19">
-        <v>0.003788714584857227</v>
+        <v>0.004096818714816193</v>
       </c>
       <c r="T19">
-        <v>0.002536244553006597</v>
+        <v>0.002744966855783665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H20">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I20">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J20">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N20">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O20">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P20">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q20">
-        <v>0.18674192922375</v>
+        <v>0.58824133129375</v>
       </c>
       <c r="R20">
-        <v>0.746967716895</v>
+        <v>2.352965325175</v>
       </c>
       <c r="S20">
-        <v>3.155467468448571E-05</v>
+        <v>5.487034139256184E-05</v>
       </c>
       <c r="T20">
-        <v>1.408223818359367E-05</v>
+        <v>2.450963035349154E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H21">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I21">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J21">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N21">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O21">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P21">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q21">
-        <v>28.50614278480149</v>
+        <v>49.1936990216</v>
       </c>
       <c r="R21">
-        <v>171.036856708809</v>
+        <v>295.1621941296</v>
       </c>
       <c r="S21">
-        <v>0.004816818942713972</v>
+        <v>0.004588720506499382</v>
       </c>
       <c r="T21">
-        <v>0.003224479050257535</v>
+        <v>0.003074552861038852</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H22">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I22">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J22">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N22">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O22">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P22">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q22">
-        <v>6.994338508528667</v>
+        <v>24.46491572814</v>
       </c>
       <c r="R22">
-        <v>62.949046576758</v>
+        <v>220.18424155326</v>
       </c>
       <c r="S22">
-        <v>0.001181866746194693</v>
+        <v>0.002282053651671993</v>
       </c>
       <c r="T22">
-        <v>0.001186749369850808</v>
+        <v>0.002293546068186502</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H23">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I23">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J23">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.088322</v>
       </c>
       <c r="O23">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P23">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q23">
-        <v>14.439211646602</v>
+        <v>20.403699784344</v>
       </c>
       <c r="R23">
-        <v>129.952904819418</v>
+        <v>183.633298059096</v>
       </c>
       <c r="S23">
-        <v>0.002439862478142464</v>
+        <v>0.001903229020606207</v>
       </c>
       <c r="T23">
-        <v>0.002449942235688569</v>
+        <v>0.001912813677220779</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H24">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I24">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J24">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N24">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O24">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P24">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q24">
-        <v>751.8177024846509</v>
+        <v>1650.106460895372</v>
       </c>
       <c r="R24">
-        <v>6766.359322361858</v>
+        <v>14850.95814805835</v>
       </c>
       <c r="S24">
-        <v>0.1270382239412115</v>
+        <v>0.1539196585256386</v>
       </c>
       <c r="T24">
-        <v>0.127563054544529</v>
+        <v>0.154694797543186</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H25">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I25">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J25">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N25">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O25">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P25">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q25">
-        <v>6.2615862168025</v>
+        <v>22.100539747086</v>
       </c>
       <c r="R25">
-        <v>37.569517300815</v>
+        <v>132.603238482516</v>
       </c>
       <c r="S25">
-        <v>0.001058050095666109</v>
+        <v>0.002061507915833481</v>
       </c>
       <c r="T25">
-        <v>0.000708280798629333</v>
+        <v>0.001381259776380526</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H26">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I26">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J26">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N26">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O26">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P26">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q26">
-        <v>955.8307097794302</v>
+        <v>1848.233442117888</v>
       </c>
       <c r="R26">
-        <v>8602.476388014871</v>
+        <v>16634.10097906099</v>
       </c>
       <c r="S26">
-        <v>0.16151127508377</v>
+        <v>0.1724006705192149</v>
       </c>
       <c r="T26">
-        <v>0.1621785235489565</v>
+        <v>0.173268879867201</v>
       </c>
     </row>
   </sheetData>
